--- a/indicators.xlsx
+++ b/indicators.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\python36\zht\internship\FT\singleFactor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FT_Users\HTZhang\software\python\HTZhang\FT_hp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{752B098C-A2DA-44DF-B4AD-F495AB51DC1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="7080" activeTab="4" xr2:uid="{46789395-A32F-44E5-8258-B075B677A22F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="7080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="2" r:id="rId1"/>
@@ -18,8 +17,9 @@
     <sheet name="growth" sheetId="4" r:id="rId3"/>
     <sheet name="summary" sheetId="6" r:id="rId4"/>
     <sheet name="valid" sheetId="5" r:id="rId5"/>
+    <sheet name="indicators_involved" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="522">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1916,12 +1916,145 @@
     <t>注释 ：从summary中挑选样本量大于80期，同时在每类中，只保留同一方向的因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tot_liab</t>
+  </si>
+  <si>
+    <t>fin_exp</t>
+  </si>
+  <si>
+    <t>inc_tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depr_fa_coga_dpba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amort_intang_assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amort_lt_deferred_exp</t>
+  </si>
+  <si>
+    <t>oper_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gerl_admin_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_oper_rev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_oper_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes_rcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_rcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes_payable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acct_payable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oper_rev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_non_cur_liab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monetary_cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价量(日频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_cash_dividend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_consensus_forecast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_indcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_a_shr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeshares</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freefloat_cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjuplimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjdownlimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_fundamental_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2056,6 +2189,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2091,7 +2231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2184,6 +2324,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2498,21 +2641,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6639431F-706A-422F-B979-BF60B7B35279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="102" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="6" customFormat="1">
       <c r="B1" s="6" t="s">
         <v>113</v>
       </c>
@@ -2520,7 +2663,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2531,7 +2674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2542,7 +2685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2553,7 +2696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2564,7 +2707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2575,7 +2718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2586,7 +2729,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2597,7 +2740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2616,15 +2759,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A566BA4-0811-497F-AEA2-AFD9AF2AF7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="3" bestFit="1" customWidth="1"/>
@@ -2637,7 +2780,7 @@
     <col min="9" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>118</v>
@@ -2664,7 +2807,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -2690,7 +2833,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -2717,7 +2860,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2740,7 +2883,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>40</v>
       </c>
@@ -2763,7 +2906,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>32</v>
       </c>
@@ -2787,7 +2930,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>30</v>
       </c>
@@ -2811,7 +2954,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>27</v>
       </c>
@@ -2835,7 +2978,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>26</v>
       </c>
@@ -2859,7 +3002,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12.6" customHeight="1">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -2883,7 +3026,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2907,7 +3050,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -2931,7 +3074,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>23</v>
       </c>
@@ -2955,7 +3098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>29</v>
       </c>
@@ -2981,7 +3124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>36</v>
       </c>
@@ -3005,7 +3148,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>45</v>
       </c>
@@ -3029,7 +3172,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>37</v>
       </c>
@@ -3053,7 +3196,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -3077,7 +3220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -3103,7 +3246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -3129,7 +3272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="8" customFormat="1">
       <c r="A21" s="8">
         <v>34</v>
       </c>
@@ -3154,7 +3297,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="8" customFormat="1">
       <c r="A22" s="3">
         <v>33</v>
       </c>
@@ -3179,7 +3322,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="4" customFormat="1">
       <c r="A23" s="3">
         <v>39</v>
       </c>
@@ -3204,7 +3347,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="8">
         <v>14</v>
       </c>
@@ -3230,7 +3373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="8">
         <v>6</v>
       </c>
@@ -3254,7 +3397,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3278,7 +3421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>31</v>
       </c>
@@ -3302,7 +3445,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="8">
         <v>18</v>
       </c>
@@ -3326,7 +3469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>21</v>
       </c>
@@ -3350,7 +3493,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -3374,7 +3517,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>25</v>
       </c>
@@ -3398,7 +3541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="8">
         <v>24</v>
       </c>
@@ -3423,7 +3566,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="3">
         <v>11</v>
       </c>
@@ -3448,7 +3591,7 @@
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="8" customFormat="1">
       <c r="A34" s="3">
         <v>15</v>
       </c>
@@ -3473,7 +3616,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="8">
         <v>16</v>
       </c>
@@ -3498,7 +3641,7 @@
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="8">
         <v>28</v>
       </c>
@@ -3524,7 +3667,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="3">
         <v>13</v>
       </c>
@@ -3549,7 +3692,7 @@
       </c>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="8" customFormat="1">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -3574,7 +3717,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="8" customFormat="1">
       <c r="A39" s="8">
         <v>12</v>
       </c>
@@ -3598,7 +3741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="8" customFormat="1">
       <c r="A40" s="8">
         <v>19</v>
       </c>
@@ -3622,7 +3765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="8" customFormat="1">
       <c r="A41" s="8">
         <v>20</v>
       </c>
@@ -3646,7 +3789,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="8" customFormat="1">
       <c r="A42" s="3">
         <v>35</v>
       </c>
@@ -3673,7 +3816,7 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -3698,7 +3841,7 @@
       </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="8">
         <v>52</v>
       </c>
@@ -3721,7 +3864,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="8">
         <v>48</v>
       </c>
@@ -3745,7 +3888,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="8">
         <v>50</v>
       </c>
@@ -3769,7 +3912,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="3">
         <v>49</v>
       </c>
@@ -3793,7 +3936,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -3820,7 +3963,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3843,7 +3986,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="8">
         <v>42</v>
       </c>
@@ -3870,7 +4013,7 @@
       </c>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -3893,7 +4036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="3">
         <v>43</v>
       </c>
@@ -3918,7 +4061,7 @@
       </c>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="8">
         <v>44</v>
       </c>
@@ -3942,7 +4085,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="D54"/>
       <c r="F54" s="9"/>
       <c r="G54"/>
@@ -3959,14 +4102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A526911-FF16-4660-B858-6379803BDFC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
@@ -3974,7 +4117,7 @@
     <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1">
       <c r="B1" s="6" t="s">
         <v>106</v>
       </c>
@@ -3988,7 +4131,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4002,7 +4145,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="9" customFormat="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4016,7 +4159,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4030,7 +4173,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4044,7 +4187,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4058,7 +4201,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4072,7 +4215,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4087,7 +4230,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4095,7 +4238,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4103,7 +4246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4114,18 +4257,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E0B3C1-72FA-4080-AEA5-8F9627E04C75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="55.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.625" customWidth="1"/>
@@ -4138,7 +4282,7 @@
     <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26" t="s">
@@ -4163,7 +4307,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="26" t="s">
         <v>347</v>
       </c>
@@ -4192,7 +4336,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="28" t="s">
         <v>356</v>
       </c>
@@ -4221,7 +4365,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="28" t="s">
         <v>357</v>
       </c>
@@ -4250,7 +4394,7 @@
         <v>0.54878048780487809</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
         <v>358</v>
       </c>
@@ -4279,7 +4423,7 @@
         <v>0.70454545454545459</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="28" t="s">
         <v>359</v>
       </c>
@@ -4308,7 +4452,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="28" t="s">
         <v>360</v>
       </c>
@@ -4337,7 +4481,7 @@
         <v>0.77272727272727271</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="28" t="s">
         <v>361</v>
       </c>
@@ -4366,7 +4510,7 @@
         <v>0.63114754098360659</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="28" t="s">
         <v>362</v>
       </c>
@@ -4395,7 +4539,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="28" t="s">
         <v>363</v>
       </c>
@@ -4424,7 +4568,7 @@
         <v>0.70866141732283461</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="28" t="s">
         <v>364</v>
       </c>
@@ -4453,7 +4597,7 @@
         <v>0.6796875</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="28" t="s">
         <v>365</v>
       </c>
@@ -4482,7 +4626,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="28" t="s">
         <v>366</v>
       </c>
@@ -4511,7 +4655,7 @@
         <v>0.67938931297709926</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="28" t="s">
         <v>367</v>
       </c>
@@ -4540,7 +4684,7 @@
         <v>0.65671641791044777</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="28" t="s">
         <v>368</v>
       </c>
@@ -4569,7 +4713,7 @@
         <v>0.65671641791044777</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="28" t="s">
         <v>369</v>
       </c>
@@ -4598,7 +4742,7 @@
         <v>0.63432835820895528</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="28" t="s">
         <v>370</v>
       </c>
@@ -4627,7 +4771,7 @@
         <v>0.64925373134328357</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="28" t="s">
         <v>371</v>
       </c>
@@ -4656,7 +4800,7 @@
         <v>0.61940298507462688</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="28" t="s">
         <v>372</v>
       </c>
@@ -4685,7 +4829,7 @@
         <v>0.68656716417910446</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="28" t="s">
         <v>373</v>
       </c>
@@ -4714,7 +4858,7 @@
         <v>0.70895522388059706</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="28" t="s">
         <v>374</v>
       </c>
@@ -4743,7 +4887,7 @@
         <v>0.61194029850746268</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="28" t="s">
         <v>375</v>
       </c>
@@ -4772,7 +4916,7 @@
         <v>0.68656716417910446</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="28" t="s">
         <v>376</v>
       </c>
@@ -4801,7 +4945,7 @@
         <v>0.63432835820895528</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="28" t="s">
         <v>377</v>
       </c>
@@ -4830,7 +4974,7 @@
         <v>0.61194029850746268</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="28" t="s">
         <v>378</v>
       </c>
@@ -4859,7 +5003,7 @@
         <v>0.62686567164179108</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="28" t="s">
         <v>379</v>
       </c>
@@ -4888,7 +5032,7 @@
         <v>0.66911764705882348</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="28" t="s">
         <v>380</v>
       </c>
@@ -4917,7 +5061,7 @@
         <v>0.65441176470588236</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="28" t="s">
         <v>381</v>
       </c>
@@ -4946,7 +5090,7 @@
         <v>0.35766423357664229</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="28" t="s">
         <v>382</v>
       </c>
@@ -4975,7 +5119,7 @@
         <v>0.60144927536231885</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="28" t="s">
         <v>383</v>
       </c>
@@ -5004,7 +5148,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="28" t="s">
         <v>384</v>
       </c>
@@ -5033,7 +5177,7 @@
         <v>0.74100719424460426</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="28" t="s">
         <v>385</v>
       </c>
@@ -5062,7 +5206,7 @@
         <v>0.72661870503597126</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="28" t="s">
         <v>386</v>
       </c>
@@ -5091,7 +5235,7 @@
         <v>0.37410071942446049</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="28" t="s">
         <v>387</v>
       </c>
@@ -5120,7 +5264,7 @@
         <v>0.35251798561151082</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="28" t="s">
         <v>388</v>
       </c>
@@ -5149,7 +5293,7 @@
         <v>0.34532374100719432</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="28" t="s">
         <v>389</v>
       </c>
@@ -5178,7 +5322,7 @@
         <v>0.68571428571428572</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="28" t="s">
         <v>390</v>
       </c>
@@ -5207,7 +5351,7 @@
         <v>0.66428571428571426</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="28" t="s">
         <v>391</v>
       </c>
@@ -5236,7 +5380,7 @@
         <v>0.71631205673758869</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="28" t="s">
         <v>392</v>
       </c>
@@ -5265,7 +5409,7 @@
         <v>0.33557046979865768</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="28" t="s">
         <v>393</v>
       </c>
@@ -5294,7 +5438,7 @@
         <v>0.36423841059602652</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="28" t="s">
         <v>394</v>
       </c>
@@ -5323,7 +5467,7 @@
         <v>0.30463576158940397</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="28" t="s">
         <v>395</v>
       </c>
@@ -5352,7 +5496,7 @@
         <v>0.31788079470198682</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="28" t="s">
         <v>396</v>
       </c>
@@ -5381,7 +5525,7 @@
         <v>0.66447368421052633</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="28" t="s">
         <v>397</v>
       </c>
@@ -5410,7 +5554,7 @@
         <v>0.70394736842105265</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="28" t="s">
         <v>398</v>
       </c>
@@ -5439,7 +5583,7 @@
         <v>0.35526315789473678</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="28" t="s">
         <v>399</v>
       </c>
@@ -5468,7 +5612,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="28" t="s">
         <v>400</v>
       </c>
@@ -5497,7 +5641,7 @@
         <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="28" t="s">
         <v>402</v>
       </c>
@@ -5526,7 +5670,7 @@
         <v>0.38157894736842107</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
         <v>403</v>
       </c>
@@ -5555,7 +5699,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="28" t="s">
         <v>404</v>
       </c>
@@ -5584,7 +5728,7 @@
         <v>0.32236842105263158</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="28" t="s">
         <v>405</v>
       </c>
@@ -5613,7 +5757,7 @@
         <v>0.66883116883116878</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="28" t="s">
         <v>406</v>
       </c>
@@ -5642,7 +5786,7 @@
         <v>0.6558441558441559</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="28" t="s">
         <v>407</v>
       </c>
@@ -5671,7 +5815,7 @@
         <v>0.70779220779220775</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="28" t="s">
         <v>408</v>
       </c>
@@ -5700,7 +5844,7 @@
         <v>0.69480519480519476</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="28" t="s">
         <v>409</v>
       </c>
@@ -5729,7 +5873,7 @@
         <v>0.66233766233766234</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="28" t="s">
         <v>410</v>
       </c>
@@ -5758,7 +5902,7 @@
         <v>0.70129870129870131</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="28" t="s">
         <v>411</v>
       </c>
@@ -5787,7 +5931,7 @@
         <v>0.6967741935483871</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="28" t="s">
         <v>412</v>
       </c>
@@ -5816,7 +5960,7 @@
         <v>0.65806451612903227</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="28" t="s">
         <v>413</v>
       </c>
@@ -5845,7 +5989,7 @@
         <v>0.33548387096774201</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="28" t="s">
         <v>414</v>
       </c>
@@ -5874,7 +6018,7 @@
         <v>0.71153846153846156</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="28" t="s">
         <v>415</v>
       </c>
@@ -5903,7 +6047,7 @@
         <v>0.66025641025641024</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="28" t="s">
         <v>416</v>
       </c>
@@ -5932,7 +6076,7 @@
         <v>0.28846153846153838</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="28" t="s">
         <v>417</v>
       </c>
@@ -5961,7 +6105,7 @@
         <v>0.34615384615384609</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="28" t="s">
         <v>418</v>
       </c>
@@ -5990,7 +6134,7 @@
         <v>0.70063694267515919</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="28" t="s">
         <v>419</v>
       </c>
@@ -6019,7 +6163,7 @@
         <v>0.67515923566878977</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="28" t="s">
         <v>420</v>
       </c>
@@ -6048,7 +6192,7 @@
         <v>0.68152866242038213</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="28" t="s">
         <v>421</v>
       </c>
@@ -6077,7 +6221,7 @@
         <v>0.66242038216560506</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="28" t="s">
         <v>422</v>
       </c>
@@ -6106,7 +6250,7 @@
         <v>0.70063694267515919</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="28" t="s">
         <v>423</v>
       </c>
@@ -6135,7 +6279,7 @@
         <v>0.70700636942675155</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="28" t="s">
         <v>424</v>
       </c>
@@ -6164,7 +6308,7 @@
         <v>0.70886075949367089</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="28" t="s">
         <v>425</v>
       </c>
@@ -6193,7 +6337,7 @@
         <v>0.70886075949367089</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="28" t="s">
         <v>426</v>
       </c>
@@ -6222,7 +6366,7 @@
         <v>0.63291139240506333</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="28" t="s">
         <v>427</v>
       </c>
@@ -6251,7 +6395,7 @@
         <v>0.64556962025316456</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="28" t="s">
         <v>428</v>
       </c>
@@ -6280,7 +6424,7 @@
         <v>0.63924050632911389</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="28" t="s">
         <v>429</v>
       </c>
@@ -6309,7 +6453,7 @@
         <v>0.64556962025316456</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="28" t="s">
         <v>430</v>
       </c>
@@ -6338,7 +6482,7 @@
         <v>0.69620253164556967</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="28" t="s">
         <v>431</v>
       </c>
@@ -6367,7 +6511,7 @@
         <v>0.63291139240506333</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="28" t="s">
         <v>432</v>
       </c>
@@ -6396,7 +6540,7 @@
         <v>0.64556962025316456</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="28" t="s">
         <v>433</v>
       </c>
@@ -6425,7 +6569,7 @@
         <v>0.25949367088607589</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="28" t="s">
         <v>434</v>
       </c>
@@ -6454,7 +6598,7 @@
         <v>0.620253164556962</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="28" t="s">
         <v>435</v>
       </c>
@@ -6483,7 +6627,7 @@
         <v>0.72151898734177211</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="28" t="s">
         <v>436</v>
       </c>
@@ -6512,7 +6656,7 @@
         <v>0.77215189873417722</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="29" t="s">
         <v>158</v>
       </c>
@@ -6541,7 +6685,7 @@
         <v>0.63291139240506333</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="28" t="s">
         <v>437</v>
       </c>
@@ -6570,7 +6714,7 @@
         <v>0.71698113207547165</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="28" t="s">
         <v>438</v>
       </c>
@@ -6599,7 +6743,7 @@
         <v>0.72327044025157228</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="28" t="s">
         <v>439</v>
       </c>
@@ -6628,7 +6772,7 @@
         <v>0.74213836477987416</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="28" t="s">
         <v>440</v>
       </c>
@@ -6657,7 +6801,7 @@
         <v>0.69811320754716977</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="30" t="s">
         <v>143</v>
       </c>
@@ -6686,7 +6830,7 @@
         <v>0.57861635220125784</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="28" t="s">
         <v>441</v>
       </c>
@@ -6715,7 +6859,7 @@
         <v>0.63522012578616349</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="28" t="s">
         <v>442</v>
       </c>
@@ -6744,7 +6888,7 @@
         <v>0.64779874213836475</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="28" t="s">
         <v>443</v>
       </c>
@@ -6773,7 +6917,7 @@
         <v>0.37735849056603782</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" s="28" t="s">
         <v>445</v>
       </c>
@@ -6802,7 +6946,7 @@
         <v>0.27044025157232698</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="28" t="s">
         <v>446</v>
       </c>
@@ -6831,7 +6975,7 @@
         <v>0.37106918238993708</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="28" t="s">
         <v>447</v>
       </c>
@@ -6860,7 +7004,7 @@
         <v>0.30188679245283018</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="28" t="s">
         <v>448</v>
       </c>
@@ -6889,7 +7033,7 @@
         <v>0.31446540880503138</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="28" t="s">
         <v>449</v>
       </c>
@@ -6918,7 +7062,7 @@
         <v>0.58125000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="28" t="s">
         <v>450</v>
       </c>
@@ -6947,7 +7091,7 @@
         <v>0.60624999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="28" t="s">
         <v>451</v>
       </c>
@@ -6976,7 +7120,7 @@
         <v>0.63124999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="28" t="s">
         <v>452</v>
       </c>
@@ -7005,7 +7149,7 @@
         <v>0.60624999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="28" t="s">
         <v>453</v>
       </c>
@@ -7034,7 +7178,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="28" t="s">
         <v>454</v>
       </c>
@@ -7063,7 +7207,7 @@
         <v>0.23125000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="28" t="s">
         <v>455</v>
       </c>
@@ -7092,7 +7236,7 @@
         <v>0.6211180124223602</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="28" t="s">
         <v>456</v>
       </c>
@@ -7121,7 +7265,7 @@
         <v>0.63354037267080743</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="28" t="s">
         <v>457</v>
       </c>
@@ -7150,7 +7294,7 @@
         <v>0.58385093167701863</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="28" t="s">
         <v>361</v>
       </c>
@@ -7179,7 +7323,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="28" t="s">
         <v>458</v>
       </c>
@@ -7208,7 +7352,7 @@
         <v>0.64596273291925466</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="28" t="s">
         <v>459</v>
       </c>
@@ -7237,7 +7381,7 @@
         <v>0.6149068322981367</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" s="28" t="s">
         <v>460</v>
       </c>
@@ -7266,7 +7410,7 @@
         <v>0.63975155279503104</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" s="28" t="s">
         <v>461</v>
       </c>
@@ -7295,7 +7439,7 @@
         <v>0.63354037267080743</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" s="28" t="s">
         <v>462</v>
       </c>
@@ -7324,7 +7468,7 @@
         <v>0.70807453416149069</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" s="28" t="s">
         <v>463</v>
       </c>
@@ -7353,7 +7497,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" s="28" t="s">
         <v>464</v>
       </c>
@@ -7382,7 +7526,7 @@
         <v>0.67701863354037262</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" s="28" t="s">
         <v>465</v>
       </c>
@@ -7411,7 +7555,7 @@
         <v>0.70807453416149069</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" s="28" t="s">
         <v>466</v>
       </c>
@@ -7440,7 +7584,7 @@
         <v>0.57763975155279501</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" s="28" t="s">
         <v>467</v>
       </c>
@@ -7469,7 +7613,7 @@
         <v>0.59006211180124224</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" s="28" t="s">
         <v>468</v>
       </c>
@@ -7498,7 +7642,7 @@
         <v>0.73291925465838514</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" s="28" t="s">
         <v>469</v>
       </c>
@@ -7527,7 +7671,7 @@
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" s="28" t="s">
         <v>470</v>
       </c>
@@ -7556,7 +7700,7 @@
         <v>0.72049689440993792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" s="28" t="s">
         <v>471</v>
       </c>
@@ -7585,7 +7729,7 @@
         <v>0.70807453416149069</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" s="28" t="s">
         <v>472</v>
       </c>
@@ -7614,7 +7758,7 @@
         <v>0.67080745341614911</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" s="28" t="s">
         <v>473</v>
       </c>
@@ -7643,7 +7787,7 @@
         <v>0.70807453416149069</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" s="28" t="s">
         <v>474</v>
       </c>
@@ -7672,7 +7816,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" s="28" t="s">
         <v>475</v>
       </c>
@@ -7701,7 +7845,7 @@
         <v>0.67080745341614911</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" s="28" t="s">
         <v>476</v>
       </c>
@@ -7730,7 +7874,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" s="28" t="s">
         <v>477</v>
       </c>
@@ -7759,7 +7903,7 @@
         <v>0.63975155279503104</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126" s="31" t="s">
         <v>27</v>
       </c>
@@ -7788,7 +7932,7 @@
         <v>0.59006211180124224</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127" s="31" t="s">
         <v>29</v>
       </c>
@@ -7817,7 +7961,7 @@
         <v>0.62732919254658381</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128" s="31" t="s">
         <v>32</v>
       </c>
@@ -7846,7 +7990,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" s="31" t="s">
         <v>34</v>
       </c>
@@ -7875,7 +8019,7 @@
         <v>0.6149068322981367</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" s="31" t="s">
         <v>39</v>
       </c>
@@ -7904,7 +8048,7 @@
         <v>0.32298136645962727</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" s="31" t="s">
         <v>50</v>
       </c>
@@ -7933,7 +8077,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" s="31" t="s">
         <v>147</v>
       </c>
@@ -7962,7 +8106,7 @@
         <v>0.64596273291925466</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" s="31" t="s">
         <v>148</v>
       </c>
@@ -7991,7 +8135,7 @@
         <v>0.47826086956521741</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" s="28" t="s">
         <v>480</v>
       </c>
@@ -8020,7 +8164,7 @@
         <v>0.65838509316770188</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" s="28" t="s">
         <v>481</v>
       </c>
@@ -8049,7 +8193,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" s="31" t="s">
         <v>150</v>
       </c>
@@ -8078,7 +8222,7 @@
         <v>0.70186335403726707</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" s="31" t="s">
         <v>62</v>
       </c>
@@ -8107,7 +8251,7 @@
         <v>0.36645962732919263</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" s="28" t="s">
         <v>483</v>
       </c>
@@ -8136,7 +8280,7 @@
         <v>0.63354037267080743</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" s="28" t="s">
         <v>484</v>
       </c>
@@ -8165,7 +8309,7 @@
         <v>0.68322981366459623</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" s="32" t="s">
         <v>485</v>
       </c>
@@ -8194,7 +8338,7 @@
         <v>0.2484472049689441</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" s="28" t="s">
         <v>486</v>
       </c>
@@ -8311,19 +8455,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3FB02-7206-463C-B60A-11975F5F52B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8331,7 +8475,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
         <v>204</v>
       </c>
@@ -8342,7 +8486,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
         <v>205</v>
       </c>
@@ -8350,7 +8494,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
         <v>206</v>
       </c>
@@ -8358,7 +8502,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
         <v>207</v>
       </c>
@@ -8366,7 +8510,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="25" t="s">
         <v>208</v>
       </c>
@@ -8374,7 +8518,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="25" t="s">
         <v>209</v>
       </c>
@@ -8382,7 +8526,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="25" t="s">
         <v>210</v>
       </c>
@@ -8390,7 +8534,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="25" t="s">
         <v>211</v>
       </c>
@@ -8398,7 +8542,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="25" t="s">
         <v>212</v>
       </c>
@@ -8406,7 +8550,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="25" t="s">
         <v>213</v>
       </c>
@@ -8414,7 +8558,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="25" t="s">
         <v>214</v>
       </c>
@@ -8422,7 +8566,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="25" t="s">
         <v>215</v>
       </c>
@@ -8430,7 +8574,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="25" t="s">
         <v>216</v>
       </c>
@@ -8438,7 +8582,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="25" t="s">
         <v>217</v>
       </c>
@@ -8446,7 +8590,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
         <v>218</v>
       </c>
@@ -8454,7 +8598,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="25" t="s">
         <v>219</v>
       </c>
@@ -8462,7 +8606,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="25" t="s">
         <v>220</v>
       </c>
@@ -8470,7 +8614,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="25" t="s">
         <v>221</v>
       </c>
@@ -8478,7 +8622,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="25" t="s">
         <v>222</v>
       </c>
@@ -8486,7 +8630,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="25" t="s">
         <v>223</v>
       </c>
@@ -8494,7 +8638,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="25" t="s">
         <v>224</v>
       </c>
@@ -8502,7 +8646,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="25" t="s">
         <v>225</v>
       </c>
@@ -8510,7 +8654,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="25" t="s">
         <v>226</v>
       </c>
@@ -8518,7 +8662,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="25" t="s">
         <v>227</v>
       </c>
@@ -8526,7 +8670,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="25" t="s">
         <v>228</v>
       </c>
@@ -8534,7 +8678,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="25" t="s">
         <v>229</v>
       </c>
@@ -8542,7 +8686,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="25" t="s">
         <v>230</v>
       </c>
@@ -8550,7 +8694,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="25" t="s">
         <v>231</v>
       </c>
@@ -8558,7 +8702,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="25" t="s">
         <v>232</v>
       </c>
@@ -8566,7 +8710,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="25" t="s">
         <v>233</v>
       </c>
@@ -8574,7 +8718,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="25" t="s">
         <v>234</v>
       </c>
@@ -8582,7 +8726,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="25" t="s">
         <v>235</v>
       </c>
@@ -8590,7 +8734,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="25" t="s">
         <v>236</v>
       </c>
@@ -8598,7 +8742,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="25" t="s">
         <v>237</v>
       </c>
@@ -8606,7 +8750,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
         <v>238</v>
       </c>
@@ -8614,7 +8758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
         <v>239</v>
       </c>
@@ -8622,7 +8766,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
         <v>240</v>
       </c>
@@ -8630,7 +8774,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="25" t="s">
         <v>241</v>
       </c>
@@ -8638,7 +8782,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
         <v>242</v>
       </c>
@@ -8646,7 +8790,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
         <v>243</v>
       </c>
@@ -8654,7 +8798,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
         <v>244</v>
       </c>
@@ -8662,7 +8806,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
         <v>245</v>
       </c>
@@ -8670,7 +8814,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="25" t="s">
         <v>247</v>
       </c>
@@ -8678,7 +8822,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
         <v>248</v>
       </c>
@@ -8686,7 +8830,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="25" t="s">
         <v>249</v>
       </c>
@@ -8694,7 +8838,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="25" t="s">
         <v>250</v>
       </c>
@@ -8702,7 +8846,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="25" t="s">
         <v>251</v>
       </c>
@@ -8710,7 +8854,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
         <v>252</v>
       </c>
@@ -8718,7 +8862,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="25" t="s">
         <v>253</v>
       </c>
@@ -8726,7 +8870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="25" t="s">
         <v>254</v>
       </c>
@@ -8734,7 +8878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="25" t="s">
         <v>255</v>
       </c>
@@ -8742,7 +8886,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="25" t="s">
         <v>256</v>
       </c>
@@ -8750,7 +8894,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="25" t="s">
         <v>257</v>
       </c>
@@ -8758,7 +8902,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="25" t="s">
         <v>258</v>
       </c>
@@ -8766,7 +8910,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="25" t="s">
         <v>259</v>
       </c>
@@ -8774,7 +8918,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="25" t="s">
         <v>260</v>
       </c>
@@ -8782,7 +8926,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="25" t="s">
         <v>261</v>
       </c>
@@ -8790,7 +8934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="25" t="s">
         <v>262</v>
       </c>
@@ -8798,7 +8942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="25" t="s">
         <v>263</v>
       </c>
@@ -8806,7 +8950,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="25" t="s">
         <v>264</v>
       </c>
@@ -8814,7 +8958,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="25" t="s">
         <v>265</v>
       </c>
@@ -8822,7 +8966,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="25" t="s">
         <v>266</v>
       </c>
@@ -8830,7 +8974,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="25" t="s">
         <v>267</v>
       </c>
@@ -8838,7 +8982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="25" t="s">
         <v>268</v>
       </c>
@@ -8846,7 +8990,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="25" t="s">
         <v>269</v>
       </c>
@@ -8854,7 +8998,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="25" t="s">
         <v>270</v>
       </c>
@@ -8862,7 +9006,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="25" t="s">
         <v>271</v>
       </c>
@@ -8870,7 +9014,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="25" t="s">
         <v>272</v>
       </c>
@@ -8878,7 +9022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="25" t="s">
         <v>273</v>
       </c>
@@ -8886,7 +9030,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="25" t="s">
         <v>274</v>
       </c>
@@ -8894,7 +9038,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="25" t="s">
         <v>275</v>
       </c>
@@ -8902,7 +9046,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="25" t="s">
         <v>276</v>
       </c>
@@ -8910,7 +9054,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="25" t="s">
         <v>277</v>
       </c>
@@ -8918,7 +9062,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="25" t="s">
         <v>278</v>
       </c>
@@ -8926,7 +9070,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="25" t="s">
         <v>279</v>
       </c>
@@ -8934,7 +9078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="25" t="s">
         <v>280</v>
       </c>
@@ -8942,7 +9086,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="25" t="s">
         <v>281</v>
       </c>
@@ -8950,7 +9094,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="25" t="s">
         <v>282</v>
       </c>
@@ -8958,7 +9102,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="25" t="s">
         <v>283</v>
       </c>
@@ -8966,7 +9110,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="25" t="s">
         <v>284</v>
       </c>
@@ -8974,7 +9118,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="25" t="s">
         <v>285</v>
       </c>
@@ -8982,7 +9126,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="25" t="s">
         <v>286</v>
       </c>
@@ -8990,7 +9134,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="25" t="s">
         <v>287</v>
       </c>
@@ -8998,7 +9142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="25" t="s">
         <v>288</v>
       </c>
@@ -9006,7 +9150,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="25" t="s">
         <v>289</v>
       </c>
@@ -9014,7 +9158,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="25" t="s">
         <v>290</v>
       </c>
@@ -9022,7 +9166,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="25" t="s">
         <v>291</v>
       </c>
@@ -9030,7 +9174,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="25" t="s">
         <v>292</v>
       </c>
@@ -9038,7 +9182,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="25" t="s">
         <v>293</v>
       </c>
@@ -9046,7 +9190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="25" t="s">
         <v>294</v>
       </c>
@@ -9054,7 +9198,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="25" t="s">
         <v>295</v>
       </c>
@@ -9062,7 +9206,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="25" t="s">
         <v>296</v>
       </c>
@@ -9070,7 +9214,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="25" t="s">
         <v>297</v>
       </c>
@@ -9078,7 +9222,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="25" t="s">
         <v>298</v>
       </c>
@@ -9086,7 +9230,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="25" t="s">
         <v>299</v>
       </c>
@@ -9094,7 +9238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="25" t="s">
         <v>300</v>
       </c>
@@ -9102,7 +9246,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="25" t="s">
         <v>301</v>
       </c>
@@ -9110,7 +9254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="25" t="s">
         <v>302</v>
       </c>
@@ -9118,7 +9262,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="25" t="s">
         <v>303</v>
       </c>
@@ -9126,7 +9270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="25" t="s">
         <v>304</v>
       </c>
@@ -9134,7 +9278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="25" t="s">
         <v>305</v>
       </c>
@@ -9142,7 +9286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="25" t="s">
         <v>306</v>
       </c>
@@ -9150,7 +9294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="25" t="s">
         <v>307</v>
       </c>
@@ -9158,7 +9302,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="25" t="s">
         <v>308</v>
       </c>
@@ -9166,7 +9310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="25" t="s">
         <v>309</v>
       </c>
@@ -9174,7 +9318,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="25" t="s">
         <v>310</v>
       </c>
@@ -9182,7 +9326,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="25" t="s">
         <v>311</v>
       </c>
@@ -9190,7 +9334,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="25" t="s">
         <v>312</v>
       </c>
@@ -9198,7 +9342,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="25" t="s">
         <v>313</v>
       </c>
@@ -9206,7 +9350,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="25" t="s">
         <v>314</v>
       </c>
@@ -9214,7 +9358,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="25" t="s">
         <v>315</v>
       </c>
@@ -9222,7 +9366,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="25" t="s">
         <v>316</v>
       </c>
@@ -9230,7 +9374,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="25" t="s">
         <v>317</v>
       </c>
@@ -9238,7 +9382,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="25" t="s">
         <v>318</v>
       </c>
@@ -9246,7 +9390,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="25" t="s">
         <v>319</v>
       </c>
@@ -9254,7 +9398,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="25" t="s">
         <v>320</v>
       </c>
@@ -9262,7 +9406,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="25" t="s">
         <v>321</v>
       </c>
@@ -9270,7 +9414,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="25" t="s">
         <v>322</v>
       </c>
@@ -9278,7 +9422,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="25" t="s">
         <v>323</v>
       </c>
@@ -9286,7 +9430,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="25" t="s">
         <v>324</v>
       </c>
@@ -9294,7 +9438,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="25" t="s">
         <v>325</v>
       </c>
@@ -9302,7 +9446,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="25" t="s">
         <v>326</v>
       </c>
@@ -9310,7 +9454,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="25" t="s">
         <v>327</v>
       </c>
@@ -9318,7 +9462,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="25" t="s">
         <v>328</v>
       </c>
@@ -9326,7 +9470,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" s="25" t="s">
         <v>329</v>
       </c>
@@ -9334,7 +9478,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" s="25" t="s">
         <v>330</v>
       </c>
@@ -9342,7 +9486,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" s="25" t="s">
         <v>331</v>
       </c>
@@ -9350,7 +9494,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" s="25" t="s">
         <v>332</v>
       </c>
@@ -9358,7 +9502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" s="25" t="s">
         <v>333</v>
       </c>
@@ -9366,7 +9510,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" s="25" t="s">
         <v>334</v>
       </c>
@@ -9374,7 +9518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" s="25" t="s">
         <v>335</v>
       </c>
@@ -9382,7 +9526,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" s="25" t="s">
         <v>336</v>
       </c>
@@ -9390,7 +9534,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" s="25" t="s">
         <v>337</v>
       </c>
@@ -9399,6 +9543,268 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="32.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="E5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="33" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="33" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="33" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="33" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="33" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A136">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/indicators.xlsx
+++ b/indicators.xlsx
@@ -2763,8 +2763,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -9554,7 +9554,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9563,6 +9563,7 @@
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9807,5 +9808,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/indicators.xlsx
+++ b/indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="7080" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18432" windowHeight="7080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="2" r:id="rId1"/>
@@ -2648,11 +2648,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="102" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1">
@@ -2767,17 +2767,17 @@
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="30.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="81.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="3.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="81.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2807,7 +2807,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -4105,16 +4105,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1">
@@ -4269,17 +4269,17 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8462,9 +8462,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9553,17 +9553,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
